--- a/TReport/Documents/tags.xlsx
+++ b/TReport/Documents/tags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!$B$1:$H$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист5!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист6!$A$1:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Лист7!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="491">
   <si>
     <t>Date</t>
   </si>
@@ -1358,6 +1360,156 @@
   </si>
   <si>
     <t>Вода трубу Вентури, правая сторона</t>
+  </si>
+  <si>
+    <t>PCI_AVG_FY</t>
+  </si>
+  <si>
+    <t>Пыль (среднесуточные)</t>
+  </si>
+  <si>
+    <t>PCI_AVG_N2_F</t>
+  </si>
+  <si>
+    <t>Азот на ПУТ (среднесуточные)</t>
+  </si>
+  <si>
+    <t>PCI_AVG_N2_P</t>
+  </si>
+  <si>
+    <t>Азот на ПУТ</t>
+  </si>
+  <si>
+    <t>PCI_AVG_N2_T</t>
+  </si>
+  <si>
+    <t>PCI_AVG_WATER_F</t>
+  </si>
+  <si>
+    <t>Техническая вода (среднесуточные)</t>
+  </si>
+  <si>
+    <t>PCI_AVG_WATER_P</t>
+  </si>
+  <si>
+    <t>Техническая вода</t>
+  </si>
+  <si>
+    <t>PCI_FPG_AVG_M_OFF</t>
+  </si>
+  <si>
+    <t>Средний расход  природного газа при выключенном помоле</t>
+  </si>
+  <si>
+    <t>PCI_FPG_AVG_M_ON</t>
+  </si>
+  <si>
+    <t>Средний расход природного газа при помоле</t>
+  </si>
+  <si>
+    <t>PCI_FPG_TIME_M_OFF</t>
+  </si>
+  <si>
+    <t>Время отсутствия помола</t>
+  </si>
+  <si>
+    <t>PCI_FPG_TIME_M_ON</t>
+  </si>
+  <si>
+    <t>Время помола</t>
+  </si>
+  <si>
+    <t>PCI_FY_SUTKI</t>
+  </si>
+  <si>
+    <t>Пыль</t>
+  </si>
+  <si>
+    <t>PCI_FY_SUTKI_2</t>
+  </si>
+  <si>
+    <t>PCI_FY_TIME</t>
+  </si>
+  <si>
+    <t>PCI_N2_F_PRIV</t>
+  </si>
+  <si>
+    <t>PCI_N2_F_PRIV_SUT_DANIELI</t>
+  </si>
+  <si>
+    <t>Азот на ПУТ (Приведенный, DANIELI)</t>
+  </si>
+  <si>
+    <t>PCI_N2_F_PRIV_SUT_RAZGAR</t>
+  </si>
+  <si>
+    <t>Азот на ПУТ (Приведенный)</t>
+  </si>
+  <si>
+    <t>PCI_N2_F_SUTKI</t>
+  </si>
+  <si>
+    <t>PCI_N2_PRIV_TIME</t>
+  </si>
+  <si>
+    <t>PCI_N2_TIME</t>
+  </si>
+  <si>
+    <t>PCI_TKG_D1</t>
+  </si>
+  <si>
+    <t>Температура кауперного газа. Дымосос 1</t>
+  </si>
+  <si>
+    <t>PCI_TKG_D2</t>
+  </si>
+  <si>
+    <t>Температура кауперного газа. Дымосос 2</t>
+  </si>
+  <si>
+    <t>PCI_WATER_F_SUT_DANIELI</t>
+  </si>
+  <si>
+    <t>Техническая вода (DANIELI)</t>
+  </si>
+  <si>
+    <t>PCI_WATER_F_SUT_RAZGAR</t>
+  </si>
+  <si>
+    <t>PCI_WATER_TIME</t>
+  </si>
+  <si>
+    <t>PG_PUT_F_AVG</t>
+  </si>
+  <si>
+    <t>Природный газ на ПУТ</t>
+  </si>
+  <si>
+    <t>PG_PUT_F_SUT</t>
+  </si>
+  <si>
+    <t>PG_PUT_F_SUT_DANIELI</t>
+  </si>
+  <si>
+    <t>Природный газ на ПУТ (DANIELI)</t>
+  </si>
+  <si>
+    <t>PG_PUT_F_SUT_PRIV</t>
+  </si>
+  <si>
+    <t>Природный газ на ПУТ (Приведенный)</t>
+  </si>
+  <si>
+    <t>PG_PUT_F_TIME</t>
+  </si>
+  <si>
+    <t>Природный газ на ПУТ (среднесуточные)</t>
+  </si>
+  <si>
+    <t>PG_PUT_P_AVG</t>
+  </si>
+  <si>
+    <t>PG_PUT_T_AVG</t>
   </si>
 </sst>
 </file>
@@ -9940,7 +10092,7 @@
   <dimension ref="A2:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F141"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13179,8 +13331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13985,8 +14137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17671,4 +17823,857 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>469</v>
+      </c>
+      <c r="E12" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" t="s">
+        <v>481</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>483</v>
+      </c>
+      <c r="E17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>445</v>
+      </c>
+      <c r="E19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" t="s">
+        <v>481</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>490</v>
+      </c>
+      <c r="E25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" t="s">
+        <v>459</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E28" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>470</v>
+      </c>
+      <c r="E29" t="s">
+        <v>446</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" t="s">
+        <v>446</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>479</v>
+      </c>
+      <c r="E31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>487</v>
+      </c>
+      <c r="E32" t="s">
+        <v>488</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:H1">
+    <sortState ref="B2:H32">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TReport/Documents/tags.xlsx
+++ b/TReport/Documents/tags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,19 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="дп-8" sheetId="6" r:id="rId6"/>
     <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="дп-7" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
+    <sheet name="Лист10" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'дп-7'!$A$1:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'дп-8'!$A$1:$H$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Лист10!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!$B$1:$H$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист5!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист6!$A$1:$H$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Лист7!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="620">
   <si>
     <t>Date</t>
   </si>
@@ -1510,6 +1515,393 @@
   </si>
   <si>
     <t>PG_PUT_T_AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avg1dT_105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_112 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DmnTmpt_116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N3_10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_108 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dmnTmpt_117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N3_9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TransferData_Values_29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N3_8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BVN_63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAR_VN_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BVN_61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_106 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dmn_111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BVN_62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fpgt_report </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N3_7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N4_20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N3_6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N4_19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ItogoSutR_6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ItogoSutL_5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FDG_korr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FPG_korr </t>
+  </si>
+  <si>
+    <t>Воданизкогодавления</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>Водавысокогодавления</t>
+  </si>
+  <si>
+    <t>Воданалевуюсторонускрубера</t>
+  </si>
+  <si>
+    <t>Воданаправуюсторонускрубера</t>
+  </si>
+  <si>
+    <t>Воданадроссельнуюгруппу</t>
+  </si>
+  <si>
+    <t>ВоданалевуютрубуВентури</t>
+  </si>
+  <si>
+    <t>ВоданаправуютрубуВентури</t>
+  </si>
+  <si>
+    <t>Рхолодногодутья</t>
+  </si>
+  <si>
+    <t>Тхолодногодутья</t>
+  </si>
+  <si>
+    <t>°С</t>
+  </si>
+  <si>
+    <t>Ргорячегодутья</t>
+  </si>
+  <si>
+    <t>Тгорячегодутья</t>
+  </si>
+  <si>
+    <t>Рпара</t>
+  </si>
+  <si>
+    <t>Тпара</t>
+  </si>
+  <si>
+    <t>Рколошниковогогаза</t>
+  </si>
+  <si>
+    <t>Рколошниковогагазанавыходе</t>
+  </si>
+  <si>
+    <t>Тколошниковогогазанавыходе</t>
+  </si>
+  <si>
+    <t>О2вдутье</t>
+  </si>
+  <si>
+    <t>Давлениесжатоговоздуха</t>
+  </si>
+  <si>
+    <t>Времяработыпечи</t>
+  </si>
+  <si>
+    <t>мин.</t>
+  </si>
+  <si>
+    <t>Планим.числохолодногодутья</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Планим.числоколошниковогогаза</t>
+  </si>
+  <si>
+    <t>Планим.числорасходсжат.воздуха</t>
+  </si>
+  <si>
+    <t>Планим.числопараобщего</t>
+  </si>
+  <si>
+    <t>РасходпаранаБВН</t>
+  </si>
+  <si>
+    <t>т/сут.</t>
+  </si>
+  <si>
+    <t>РПриродныйгаз</t>
+  </si>
+  <si>
+    <t>РДоменныйгаз</t>
+  </si>
+  <si>
+    <t>ТПриродныйгаз</t>
+  </si>
+  <si>
+    <t>ТДоменныйгаз</t>
+  </si>
+  <si>
+    <t>Планим.числорасходаПриродныйгаз</t>
+  </si>
+  <si>
+    <t>Планим.числорасходаДоменныйгаз</t>
+  </si>
+  <si>
+    <t>ПлотностьДоменныйгаз</t>
+  </si>
+  <si>
+    <t>РасходПриродныйгаз</t>
+  </si>
+  <si>
+    <t>тыс.м3</t>
+  </si>
+  <si>
+    <t>РасходДоменныйгаз</t>
+  </si>
+  <si>
+    <t>КалорийностьДоменныйгаз</t>
+  </si>
+  <si>
+    <t>РасходПриродныйгазнатехнужды</t>
+  </si>
+  <si>
+    <t>нм3</t>
+  </si>
+  <si>
+    <t>ВремяподачиПриродныйгаз</t>
+  </si>
+  <si>
+    <t>ВремяподачиДоменныйгаз</t>
+  </si>
+  <si>
+    <t>ВремяПриродныйгазF&gt;98%макс.</t>
+  </si>
+  <si>
+    <t>ВремяДоменныйгазF&gt;98%макс.</t>
+  </si>
+  <si>
+    <t>Avg1dT_105</t>
+  </si>
+  <si>
+    <t>Dmn_112</t>
+  </si>
+  <si>
+    <t>TransferData_Values_31</t>
+  </si>
+  <si>
+    <t>TransferData_Values_32</t>
+  </si>
+  <si>
+    <t>TransferData_Values_33</t>
+  </si>
+  <si>
+    <t>TransferData_Values_34</t>
+  </si>
+  <si>
+    <t>TransferData_Values_35</t>
+  </si>
+  <si>
+    <t>Dmn_102</t>
+  </si>
+  <si>
+    <t>Dmn_105</t>
+  </si>
+  <si>
+    <t>DmnTmpt_116</t>
+  </si>
+  <si>
+    <t>N3_10</t>
+  </si>
+  <si>
+    <t>Dmn_103</t>
+  </si>
+  <si>
+    <t>Dmn_108</t>
+  </si>
+  <si>
+    <t>dmnTmpt_117</t>
+  </si>
+  <si>
+    <t>TransferData_Values_27</t>
+  </si>
+  <si>
+    <t>TransferData_Values_28</t>
+  </si>
+  <si>
+    <t>Dmn_109</t>
+  </si>
+  <si>
+    <t>N3_9</t>
+  </si>
+  <si>
+    <t>Dmn_101</t>
+  </si>
+  <si>
+    <t>Dmn_110</t>
+  </si>
+  <si>
+    <t>TransferData_Values_29</t>
+  </si>
+  <si>
+    <t>N3_8</t>
+  </si>
+  <si>
+    <t>BVN_63</t>
+  </si>
+  <si>
+    <t>PAR_VN_3</t>
+  </si>
+  <si>
+    <t>Dmn_104</t>
+  </si>
+  <si>
+    <t>BVN_61</t>
+  </si>
+  <si>
+    <t>Dmn_106</t>
+  </si>
+  <si>
+    <t>Dmn_107</t>
+  </si>
+  <si>
+    <t>Dmn_111</t>
+  </si>
+  <si>
+    <t>BVN_62</t>
+  </si>
+  <si>
+    <t>AVG(Ro,"DataSet3")</t>
+  </si>
+  <si>
+    <t>FPG_korr</t>
+  </si>
+  <si>
+    <t>FDG_korr</t>
+  </si>
+  <si>
+    <t>Sum(QDG,"DataSet3")</t>
+  </si>
+  <si>
+    <t>fpgt_report</t>
+  </si>
+  <si>
+    <t>N3_7</t>
+  </si>
+  <si>
+    <t>N4_20</t>
+  </si>
+  <si>
+    <t>N3_6</t>
+  </si>
+  <si>
+    <t>N4_19</t>
+  </si>
+  <si>
+    <t>Доменный газ (на БВН) &gt;98%макс.</t>
+  </si>
+  <si>
+    <t>Природный газ на печь F&gt;98%макс.</t>
+  </si>
+  <si>
+    <t>Природный газ на печь время подачи</t>
+  </si>
+  <si>
+    <t>Пар на БВН</t>
+  </si>
+  <si>
+    <t>Колошниковый газ</t>
   </si>
 </sst>
 </file>
@@ -5321,12 +5713,477 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>541</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>555</v>
+      </c>
+      <c r="B27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>549</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>557</v>
+      </c>
+      <c r="B31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>546</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" t="s">
+        <v>540</v>
+      </c>
+      <c r="C34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" t="s">
+        <v>553</v>
+      </c>
+      <c r="C35" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>534</v>
+      </c>
+      <c r="B37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B38" t="s">
+        <v>531</v>
+      </c>
+      <c r="C38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>536</v>
+      </c>
+      <c r="B39" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>537</v>
+      </c>
+      <c r="B40" t="s">
+        <v>531</v>
+      </c>
+      <c r="C40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C40">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14137,8 +14994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14177,7 +15034,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -14186,16 +15043,16 @@
         <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>138</v>
+        <v>238</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
@@ -14203,7 +15060,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -14212,16 +15069,16 @@
         <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>138</v>
+        <v>239</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
@@ -14229,7 +15086,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -14238,16 +15095,16 @@
         <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="6">
         <v>1</v>
@@ -14255,7 +15112,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -14264,16 +15121,16 @@
         <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>241</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -14281,7 +15138,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -14290,16 +15147,16 @@
         <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -14307,7 +15164,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -14316,16 +15173,16 @@
         <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>243</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
@@ -14333,7 +15190,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -14342,13 +15199,13 @@
         <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>244</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>-1</v>
@@ -14359,7 +15216,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -14368,13 +15225,13 @@
         <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>136</v>
+        <v>245</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>-1</v>
@@ -14385,7 +15242,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -14394,16 +15251,16 @@
         <v>141</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>246</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
@@ -14411,7 +15268,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -14420,16 +15277,16 @@
         <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>250</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
@@ -14437,7 +15294,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -14446,13 +15303,13 @@
         <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>251</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>-1</v>
@@ -14463,7 +15320,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -14472,24 +15329,24 @@
         <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>253</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="6">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -14498,16 +15355,16 @@
         <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>254</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F14" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
@@ -14515,7 +15372,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -14524,16 +15381,16 @@
         <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>
@@ -14541,7 +15398,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -14550,16 +15407,16 @@
         <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>256</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="6">
         <v>1</v>
@@ -14567,7 +15424,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -14576,16 +15433,16 @@
         <v>141</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>257</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
@@ -14593,7 +15450,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -14602,16 +15459,16 @@
         <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>439</v>
+        <v>258</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="6">
         <v>1</v>
@@ -14619,7 +15476,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -14628,16 +15485,16 @@
         <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>259</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>
@@ -14645,7 +15502,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -14654,7 +15511,7 @@
         <v>141</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>219</v>
@@ -14671,7 +15528,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -14680,7 +15537,7 @@
         <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>219</v>
@@ -14697,7 +15554,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -14706,7 +15563,7 @@
         <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>219</v>
@@ -14723,7 +15580,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -14732,7 +15589,7 @@
         <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>219</v>
@@ -14749,7 +15606,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -14758,7 +15615,7 @@
         <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>219</v>
@@ -14775,7 +15632,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -14784,7 +15641,7 @@
         <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>219</v>
@@ -14801,7 +15658,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -14810,7 +15667,7 @@
         <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>219</v>
@@ -14827,7 +15684,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -14836,7 +15693,7 @@
         <v>141</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>219</v>
@@ -14853,7 +15710,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -14862,7 +15719,7 @@
         <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>219</v>
@@ -14879,7 +15736,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -14888,16 +15745,16 @@
         <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>269</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -14905,7 +15762,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -14914,16 +15771,16 @@
         <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>434</v>
+        <v>270</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -14931,7 +15788,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -14940,16 +15797,16 @@
         <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>433</v>
+        <v>271</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
@@ -14957,7 +15814,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
@@ -14966,7 +15823,7 @@
         <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>219</v>
@@ -14983,7 +15840,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -14992,7 +15849,7 @@
         <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>219</v>
@@ -15009,7 +15866,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -15018,16 +15875,16 @@
         <v>141</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>146</v>
+        <v>274</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
@@ -15035,7 +15892,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -15044,7 +15901,7 @@
         <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>219</v>
@@ -15061,7 +15918,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -15070,7 +15927,7 @@
         <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>219</v>
@@ -15087,7 +15944,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -15096,7 +15953,7 @@
         <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>219</v>
@@ -15113,7 +15970,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -15122,7 +15979,7 @@
         <v>141</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>219</v>
@@ -15139,7 +15996,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -15148,7 +16005,7 @@
         <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>219</v>
@@ -15165,7 +16022,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -15174,7 +16031,7 @@
         <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>219</v>
@@ -15191,7 +16048,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -15200,7 +16057,7 @@
         <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>219</v>
@@ -15217,7 +16074,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -15226,7 +16083,7 @@
         <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>219</v>
@@ -15243,7 +16100,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -15252,7 +16109,7 @@
         <v>141</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>219</v>
@@ -15269,7 +16126,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -15278,7 +16135,7 @@
         <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>219</v>
@@ -15295,7 +16152,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -15304,7 +16161,7 @@
         <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>219</v>
@@ -15321,7 +16178,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -15330,7 +16187,7 @@
         <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>219</v>
@@ -15347,7 +16204,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -15356,7 +16213,7 @@
         <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>219</v>
@@ -15373,7 +16230,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -15382,7 +16239,7 @@
         <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>219</v>
@@ -15399,7 +16256,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -15408,7 +16265,7 @@
         <v>141</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>219</v>
@@ -15425,7 +16282,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
@@ -15434,7 +16291,7 @@
         <v>141</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>219</v>
@@ -15451,7 +16308,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -15460,7 +16317,7 @@
         <v>141</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>219</v>
@@ -15477,7 +16334,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -15486,7 +16343,7 @@
         <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>219</v>
@@ -15503,7 +16360,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -15512,7 +16369,7 @@
         <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>219</v>
@@ -15529,7 +16386,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -15538,7 +16395,7 @@
         <v>141</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>219</v>
@@ -15555,7 +16412,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
@@ -15564,7 +16421,7 @@
         <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>219</v>
@@ -15581,7 +16438,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1">
         <v>3</v>
@@ -15590,7 +16447,7 @@
         <v>141</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>219</v>
@@ -15607,7 +16464,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1">
         <v>3</v>
@@ -15616,7 +16473,7 @@
         <v>141</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>219</v>
@@ -15633,7 +16490,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -15642,7 +16499,7 @@
         <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>219</v>
@@ -15659,7 +16516,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1">
         <v>3</v>
@@ -15668,7 +16525,7 @@
         <v>141</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>219</v>
@@ -15685,7 +16542,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1">
         <v>3</v>
@@ -15694,7 +16551,7 @@
         <v>141</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>219</v>
@@ -15711,7 +16568,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B61" s="1">
         <v>3</v>
@@ -15720,7 +16577,7 @@
         <v>141</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>219</v>
@@ -15737,7 +16594,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -15746,7 +16603,7 @@
         <v>141</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>219</v>
@@ -15763,7 +16620,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
@@ -15772,7 +16629,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>219</v>
@@ -15789,7 +16646,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -15798,7 +16655,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>219</v>
@@ -15815,7 +16672,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -15824,7 +16681,7 @@
         <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>219</v>
@@ -15841,7 +16698,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B66" s="1">
         <v>3</v>
@@ -15850,7 +16707,7 @@
         <v>141</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>219</v>
@@ -15867,7 +16724,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1">
         <v>3</v>
@@ -15876,7 +16733,7 @@
         <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>219</v>
@@ -15893,7 +16750,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B68" s="1">
         <v>3</v>
@@ -15902,7 +16759,7 @@
         <v>141</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>219</v>
@@ -15919,7 +16776,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
@@ -15928,7 +16785,7 @@
         <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>219</v>
@@ -15945,7 +16802,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1">
         <v>3</v>
@@ -15954,7 +16811,7 @@
         <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>219</v>
@@ -15971,7 +16828,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1">
         <v>3</v>
@@ -15980,7 +16837,7 @@
         <v>141</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>219</v>
@@ -15997,7 +16854,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
@@ -16006,7 +16863,7 @@
         <v>141</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>219</v>
@@ -16023,7 +16880,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B73" s="1">
         <v>3</v>
@@ -16032,7 +16889,7 @@
         <v>141</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>219</v>
@@ -16049,7 +16906,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1">
         <v>3</v>
@@ -16058,7 +16915,7 @@
         <v>141</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>219</v>
@@ -16075,7 +16932,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1">
         <v>3</v>
@@ -16084,24 +16941,24 @@
         <v>141</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>135</v>
+        <v>331</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H75" s="6">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1">
         <v>3</v>
@@ -16110,7 +16967,7 @@
         <v>141</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>219</v>
@@ -16127,7 +16984,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -16136,7 +16993,7 @@
         <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>219</v>
@@ -16153,7 +17010,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B78" s="1">
         <v>3</v>
@@ -16162,7 +17019,7 @@
         <v>141</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>219</v>
@@ -16179,7 +17036,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1">
         <v>3</v>
@@ -16188,7 +17045,7 @@
         <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>219</v>
@@ -16205,7 +17062,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B80" s="1">
         <v>3</v>
@@ -16214,16 +17071,16 @@
         <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>140</v>
+        <v>336</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H80" s="6">
         <v>1</v>
@@ -16231,7 +17088,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1">
         <v>3</v>
@@ -16240,16 +17097,16 @@
         <v>141</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>140</v>
+        <v>346</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F81" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H81" s="6">
         <v>1</v>
@@ -16257,7 +17114,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B82" s="1">
         <v>3</v>
@@ -16266,13 +17123,13 @@
         <v>141</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>140</v>
+        <v>347</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F82" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1">
         <v>-1</v>
@@ -16283,7 +17140,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -16292,16 +17149,16 @@
         <v>141</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>145</v>
+        <v>348</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H83" s="6">
         <v>1</v>
@@ -16309,7 +17166,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
@@ -16318,16 +17175,16 @@
         <v>141</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>145</v>
+        <v>349</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F84" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H84" s="6">
         <v>1</v>
@@ -16335,7 +17192,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -16344,16 +17201,16 @@
         <v>141</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F85" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H85" s="6">
         <v>1</v>
@@ -16361,7 +17218,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -16370,16 +17227,16 @@
         <v>141</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="F86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H86" s="6">
         <v>1</v>
@@ -16387,7 +17244,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
@@ -16396,16 +17253,16 @@
         <v>141</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="F87" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H87" s="6">
         <v>1</v>
@@ -16413,7 +17270,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
@@ -16422,16 +17279,16 @@
         <v>141</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="F88" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H88" s="6">
         <v>1</v>
@@ -16439,7 +17296,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -16448,10 +17305,10 @@
         <v>141</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -16465,7 +17322,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
@@ -16474,16 +17331,16 @@
         <v>141</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>144</v>
+        <v>367</v>
       </c>
       <c r="F90" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H90" s="6">
         <v>1</v>
@@ -16491,7 +17348,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -16500,16 +17357,16 @@
         <v>141</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="F91" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -16517,7 +17374,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1">
         <v>3</v>
@@ -16526,16 +17383,16 @@
         <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
@@ -16543,7 +17400,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -16552,16 +17409,16 @@
         <v>141</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="F93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H93" s="6">
         <v>1</v>
@@ -16569,7 +17426,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
@@ -16578,16 +17435,16 @@
         <v>141</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>146</v>
+        <v>437</v>
       </c>
       <c r="F94" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H94" s="6">
         <v>1</v>
@@ -16595,7 +17452,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -16604,16 +17461,16 @@
         <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H95" s="6">
         <v>1</v>
@@ -16621,7 +17478,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -16630,16 +17487,16 @@
         <v>141</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>219</v>
+        <v>345</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H96" s="6">
         <v>1</v>
@@ -16647,7 +17504,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -16656,16 +17513,16 @@
         <v>141</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H97" s="6">
         <v>1</v>
@@ -16673,7 +17530,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -16682,16 +17539,16 @@
         <v>141</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H98" s="6">
         <v>1</v>
@@ -16699,7 +17556,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
@@ -16708,16 +17565,16 @@
         <v>141</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>219</v>
+        <v>341</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G99" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H99" s="6">
         <v>1</v>
@@ -16725,7 +17582,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B100" s="1">
         <v>3</v>
@@ -16734,16 +17591,16 @@
         <v>141</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>219</v>
+        <v>249</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H100" s="6">
         <v>1</v>
@@ -16751,7 +17608,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -16760,16 +17617,16 @@
         <v>141</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>219</v>
+        <v>340</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G101" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H101" s="6">
         <v>1</v>
@@ -16777,7 +17634,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -16786,16 +17643,16 @@
         <v>141</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>219</v>
+        <v>248</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H102" s="6">
         <v>1</v>
@@ -16803,7 +17660,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -16812,16 +17669,16 @@
         <v>141</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>219</v>
+        <v>247</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H103" s="6">
         <v>1</v>
@@ -16829,7 +17686,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -16838,24 +17695,24 @@
         <v>141</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>219</v>
+        <v>358</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G104" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H104" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1">
         <v>3</v>
@@ -16864,16 +17721,16 @@
         <v>141</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="F105" s="1">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1">
         <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>-1</v>
       </c>
       <c r="H105" s="6">
         <v>1</v>
@@ -16881,7 +17738,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -16890,16 +17747,16 @@
         <v>141</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>219</v>
+        <v>351</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H106" s="6">
         <v>1</v>
@@ -16907,7 +17764,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -16916,24 +17773,24 @@
         <v>141</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>219</v>
+        <v>293</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G107" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H107" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -16942,16 +17799,16 @@
         <v>141</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>219</v>
+        <v>337</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H108" s="6">
         <v>1</v>
@@ -16959,7 +17816,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
@@ -16968,16 +17825,16 @@
         <v>141</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>219</v>
+        <v>338</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F109" s="1">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1">
         <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>-1</v>
       </c>
       <c r="H109" s="6">
         <v>1</v>
@@ -16985,7 +17842,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -16994,13 +17851,13 @@
         <v>141</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>219</v>
+        <v>339</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F110" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G110" s="1">
         <v>-1</v>
@@ -17011,7 +17868,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B111" s="1">
         <v>3</v>
@@ -17020,16 +17877,16 @@
         <v>141</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="F111" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G111" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H111" s="6">
         <v>1</v>
@@ -17037,7 +17894,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B112" s="1">
         <v>3</v>
@@ -17046,16 +17903,16 @@
         <v>141</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G112" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H112" s="6">
         <v>1</v>
@@ -17063,7 +17920,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
@@ -17072,16 +17929,16 @@
         <v>141</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>219</v>
+        <v>310</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -17089,7 +17946,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114" s="1">
         <v>3</v>
@@ -17098,16 +17955,16 @@
         <v>141</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>219</v>
+        <v>311</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F114" s="1">
+        <v>3</v>
+      </c>
+      <c r="G114" s="1">
         <v>0</v>
-      </c>
-      <c r="G114" s="1">
-        <v>-1</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
@@ -17115,7 +17972,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B115" s="1">
         <v>3</v>
@@ -17124,13 +17981,13 @@
         <v>141</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>219</v>
+        <v>312</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G115" s="1">
         <v>-1</v>
@@ -17141,7 +17998,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -17150,16 +18007,16 @@
         <v>141</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="F116" s="1">
+        <v>3</v>
+      </c>
+      <c r="G116" s="1">
         <v>0</v>
-      </c>
-      <c r="G116" s="1">
-        <v>-1</v>
       </c>
       <c r="H116" s="6">
         <v>1</v>
@@ -17167,7 +18024,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -17176,16 +18033,16 @@
         <v>141</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="F117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -17193,7 +18050,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
@@ -17202,13 +18059,13 @@
         <v>141</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G118" s="1">
         <v>-1</v>
@@ -17219,7 +18076,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1">
         <v>3</v>
@@ -17228,24 +18085,24 @@
         <v>141</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F119" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H119" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
@@ -17254,16 +18111,16 @@
         <v>141</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F120" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H120" s="6">
         <v>1</v>
@@ -17271,7 +18128,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B121" s="1">
         <v>3</v>
@@ -17280,16 +18137,16 @@
         <v>141</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F121" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -17297,7 +18154,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
@@ -17306,16 +18163,16 @@
         <v>141</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>435</v>
+        <v>140</v>
       </c>
       <c r="F122" s="1">
         <v>3</v>
       </c>
       <c r="G122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -17323,7 +18180,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B123" s="1">
         <v>3</v>
@@ -17332,16 +18189,16 @@
         <v>141</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="F123" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G123" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H123" s="6">
         <v>1</v>
@@ -17349,7 +18206,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -17358,16 +18215,16 @@
         <v>141</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H124" s="6">
         <v>1</v>
@@ -17375,7 +18232,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -17384,16 +18241,16 @@
         <v>141</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>365</v>
+        <v>210</v>
       </c>
       <c r="F125" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G125" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H125" s="6">
         <v>1</v>
@@ -17401,7 +18258,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
@@ -17410,16 +18267,16 @@
         <v>141</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="F126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H126" s="6">
         <v>1</v>
@@ -17427,7 +18284,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
@@ -17436,16 +18293,16 @@
         <v>141</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>368</v>
+        <v>132</v>
       </c>
       <c r="F127" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H127" s="6">
         <v>1</v>
@@ -17453,7 +18310,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -17462,13 +18319,13 @@
         <v>141</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="F128" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G128" s="1">
         <v>-1</v>
@@ -17479,7 +18336,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
@@ -17488,24 +18345,24 @@
         <v>141</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="F129" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H129" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -17514,16 +18371,16 @@
         <v>141</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>219</v>
+        <v>357</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="F130" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H130" s="6">
         <v>1</v>
@@ -17531,7 +18388,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -17540,16 +18397,16 @@
         <v>141</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>219</v>
+        <v>304</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="F131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="1">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H131" s="6">
         <v>1</v>
@@ -17557,7 +18414,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B132" s="1">
         <v>3</v>
@@ -17566,16 +18423,16 @@
         <v>141</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="F132" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H132" s="6">
         <v>1</v>
@@ -17583,7 +18440,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="B133" s="1">
         <v>3</v>
@@ -17592,16 +18449,16 @@
         <v>141</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="F133" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G133" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H133" s="6">
         <v>1</v>
@@ -17609,7 +18466,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B134" s="1">
         <v>3</v>
@@ -17618,24 +18475,24 @@
         <v>141</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H134" s="6">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -17644,16 +18501,16 @@
         <v>141</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F135" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G135" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H135" s="6">
         <v>1</v>
@@ -17661,7 +18518,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -17670,16 +18527,16 @@
         <v>141</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="F136" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G136" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="H136" s="6">
         <v>1</v>
@@ -17687,7 +18544,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B137" s="1">
         <v>3</v>
@@ -17696,16 +18553,16 @@
         <v>141</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F137" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G137" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H137" s="6">
         <v>1</v>
@@ -17713,7 +18570,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
@@ -17722,10 +18579,10 @@
         <v>141</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -17739,25 +18596,25 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1">
+        <v>141</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="1">
-        <v>3</v>
-      </c>
-      <c r="C139" s="1">
-        <v>141</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="F139" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G139" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H139" s="6">
         <v>1</v>
@@ -17765,7 +18622,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -17774,24 +18631,24 @@
         <v>141</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="F140" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G140" s="1">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="H140" s="6">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -17800,16 +18657,16 @@
         <v>141</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="F141" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G141" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H141" s="6">
         <v>1</v>
@@ -17818,7 +18675,7 @@
   </sheetData>
   <autoFilter ref="A1:H141">
     <sortState ref="A2:H141">
-      <sortCondition ref="A1:A141"/>
+      <sortCondition ref="E1:E141"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17829,7 +18686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -18676,4 +19533,1093 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>142</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>142</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>142</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>142</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>142</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>142</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>142</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>142</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>64</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>142</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>142</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>142</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>142</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>142</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>142</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>142</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>142</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>64</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>142</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>142</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>64</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>142</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>142</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>142</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H40"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TReport/Documents/tags.xlsx
+++ b/TReport/Documents/tags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="дп-7" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист6" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'дп-7'!$A$1:$H$40</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="687">
   <si>
     <t>Date</t>
   </si>
@@ -1902,6 +1903,207 @@
   </si>
   <si>
     <t>Колошниковый газ</t>
+  </si>
+  <si>
+    <t>[P_PG_PECH_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_PG_PECH_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_PG_PECH_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_PG_PECH_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[TIME_PG_PECH_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_DUTC_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_N2_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[TIME98_PG_PECH_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_DUTC_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_DUTC_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_DUTC_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PROC_O2_DUT_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_DUTH_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_DUTH_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_N2_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_N2_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_N2_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[TIME_PECH_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_BAR_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_LP_S_SUT1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_LP_S_SUT2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_HP_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_HPBK_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_HPZLIV_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_PAR_PECH_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_PG_TN_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_DG_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_DG_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_DG_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLOTN_DG_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[Q_DG_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_O2_TN_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_KLG_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_KLG_VIH_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_KLG_VIH_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_KLG_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_PAR_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_PAR_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_PAR_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_SVZD_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_SVZD_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_SVZD_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_SVZD_RDU_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_SVZD_RDU_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_SVZD_RDU_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[P_O2_TN_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[T_O2_TN_A_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[PLN_O2_TN_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[ID_SUT_DP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_SCRUBL_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_SCRUBR_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_DROSGRP_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_VENTURL_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_WD_VENTURR_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_KLG_VIH_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_DG_GSU4_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[ID_SUT_GAZ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_COX_LV_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[ID_SUT_SH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_DG_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[TIME_DG_VN_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[TIME98_DG_VN_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[ID_SUT_VN]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_SVZD_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_SVZD_RDU_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_COX_RV_S_SUT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,[F_COX_S_SUT]</t>
   </si>
 </sst>
 </file>
@@ -5718,7 +5920,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C40"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6174,6 +6376,357 @@
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14994,8 +15547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19539,8 +20092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
